--- a/SHGraduationWarning/Template/班級預警報表樣板.xlsx
+++ b/SHGraduationWarning/Template/班級預警報表樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290477F-1EBF-4D47-A008-F53C0D911D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6837E04-FE77-4E1D-A65F-49739ED88525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EBD5E03-1850-43F1-BEE6-A291D2E0F3B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>學號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,22 +47,6 @@
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>應修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>應取得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,13 +192,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,19 +263,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,66 +598,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89350917-0C2D-4BD3-9DDF-1EB8F308D864}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -638,15 +663,18 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
